--- a/teaching/traditional_assets/database/data/mexico/mexico_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/mexico/mexico_insurance_prop_cas.xlsx
@@ -591,82 +591,82 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.173</v>
+        <v>0.169</v>
       </c>
       <c r="E2">
-        <v>0.476</v>
+        <v>0.6679999999999999</v>
       </c>
       <c r="F2">
-        <v>0.247</v>
+        <v>0.0239</v>
       </c>
       <c r="G2">
-        <v>0.09217480252315735</v>
+        <v>0.2109645265318089</v>
       </c>
       <c r="H2">
-        <v>0.09217480252315735</v>
+        <v>0.2109645265318089</v>
       </c>
       <c r="I2">
-        <v>0.1507643348298005</v>
+        <v>0.236880680152448</v>
       </c>
       <c r="J2">
-        <v>0.1090615169100214</v>
+        <v>0.1725036975548375</v>
       </c>
       <c r="K2">
-        <v>227.1</v>
+        <v>310.9</v>
       </c>
       <c r="L2">
-        <v>0.1290560891060976</v>
+        <v>0.1822925828202873</v>
       </c>
       <c r="M2">
-        <v>39.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="N2">
-        <v>0.02245542766869781</v>
+        <v>0.02962793882675189</v>
       </c>
       <c r="O2">
-        <v>0.1752531924262439</v>
+        <v>0.2087487938243809</v>
       </c>
       <c r="P2">
-        <v>18.3</v>
+        <v>32.7</v>
       </c>
       <c r="Q2">
-        <v>0.01032498307379824</v>
+        <v>0.01492809860762383</v>
       </c>
       <c r="R2">
-        <v>0.08058124174372523</v>
+        <v>0.1051785139916372</v>
       </c>
       <c r="S2">
-        <v>21.5</v>
+        <v>32.2</v>
       </c>
       <c r="T2">
-        <v>0.5402010050251256</v>
+        <v>0.4961479198767335</v>
       </c>
       <c r="U2">
-        <v>113.5</v>
+        <v>72</v>
       </c>
       <c r="V2">
-        <v>0.06403746332656285</v>
+        <v>0.03286920794339192</v>
       </c>
       <c r="W2">
-        <v>0.5055654496883348</v>
+        <v>0.5028303412582888</v>
       </c>
       <c r="X2">
-        <v>0.05126810259366402</v>
+        <v>0.05032700534849797</v>
       </c>
       <c r="Y2">
-        <v>0.4542973470946708</v>
+        <v>0.4525033359097909</v>
       </c>
       <c r="Z2">
-        <v>4.508583141173457</v>
+        <v>3.378565768621236</v>
       </c>
       <c r="AA2">
-        <v>0.4917129164913264</v>
+        <v>0.5828150875193647</v>
       </c>
       <c r="AB2">
-        <v>0.05126810259366402</v>
+        <v>0.05032700534849797</v>
       </c>
       <c r="AC2">
-        <v>0.4404448138976624</v>
+        <v>0.5324880821708667</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-113.5</v>
+        <v>-72</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.06841883175598287</v>
+        <v>-0.0339863110691527</v>
       </c>
       <c r="AK2">
-        <v>-0.2247079786180954</v>
+        <v>-0.09770660876645407</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.3893653516295026</v>
+        <v>-0.1691729323308271</v>
       </c>
     </row>
     <row r="3">
@@ -722,82 +722,82 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.173</v>
+        <v>0.169</v>
       </c>
       <c r="E3">
-        <v>0.476</v>
+        <v>0.6679999999999999</v>
       </c>
       <c r="F3">
-        <v>0.247</v>
+        <v>0.0239</v>
       </c>
       <c r="G3">
-        <v>0.09217480252315735</v>
+        <v>0.2109645265318089</v>
       </c>
       <c r="H3">
-        <v>0.09217480252315735</v>
+        <v>0.2109645265318089</v>
       </c>
       <c r="I3">
-        <v>0.1507643348298005</v>
+        <v>0.236880680152448</v>
       </c>
       <c r="J3">
-        <v>0.1090615169100214</v>
+        <v>0.1725036975548375</v>
       </c>
       <c r="K3">
-        <v>227.1</v>
+        <v>310.9</v>
       </c>
       <c r="L3">
-        <v>0.1290560891060976</v>
+        <v>0.1822925828202873</v>
       </c>
       <c r="M3">
-        <v>39.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="N3">
-        <v>0.02245542766869781</v>
+        <v>0.02962793882675189</v>
       </c>
       <c r="O3">
-        <v>0.1752531924262439</v>
+        <v>0.2087487938243809</v>
       </c>
       <c r="P3">
-        <v>18.3</v>
+        <v>32.7</v>
       </c>
       <c r="Q3">
-        <v>0.01032498307379824</v>
+        <v>0.01492809860762383</v>
       </c>
       <c r="R3">
-        <v>0.08058124174372523</v>
+        <v>0.1051785139916372</v>
       </c>
       <c r="S3">
-        <v>21.5</v>
+        <v>32.2</v>
       </c>
       <c r="T3">
-        <v>0.5402010050251256</v>
+        <v>0.4961479198767335</v>
       </c>
       <c r="U3">
-        <v>113.5</v>
+        <v>72</v>
       </c>
       <c r="V3">
-        <v>0.06403746332656285</v>
+        <v>0.03286920794339192</v>
       </c>
       <c r="W3">
-        <v>0.5055654496883348</v>
+        <v>0.5028303412582888</v>
       </c>
       <c r="X3">
-        <v>0.05126810259366402</v>
+        <v>0.05032700534849797</v>
       </c>
       <c r="Y3">
-        <v>0.4542973470946708</v>
+        <v>0.4525033359097909</v>
       </c>
       <c r="Z3">
-        <v>4.508583141173457</v>
+        <v>3.378565768621236</v>
       </c>
       <c r="AA3">
-        <v>0.4917129164913264</v>
+        <v>0.5828150875193647</v>
       </c>
       <c r="AB3">
-        <v>0.05126810259366402</v>
+        <v>0.05032700534849797</v>
       </c>
       <c r="AC3">
-        <v>0.4404448138976624</v>
+        <v>0.5324880821708667</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-113.5</v>
+        <v>-72</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.06841883175598287</v>
+        <v>-0.0339863110691527</v>
       </c>
       <c r="AK3">
-        <v>-0.2247079786180954</v>
+        <v>-0.09770660876645407</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.3893653516295026</v>
+        <v>-0.1691729323308271</v>
       </c>
     </row>
   </sheetData>
